--- a/Puppies 요구사항 정의서.xlsx
+++ b/Puppies 요구사항 정의서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Wons/puppiesDocs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C645BE2-7972-6649-8A45-77EF389F6D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF943F3-2C1A-C24E-9E7C-74BB49A3F3F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="660" windowWidth="50880" windowHeight="26820" xr2:uid="{44389DCF-ADBA-0C4B-8A9D-E4714FB1309E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="52">
   <si>
     <t>No</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -86,10 +86,6 @@
   </si>
   <si>
     <t>User (고객)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>홈</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -119,10 +115,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>비회원의 경우, 회원 가입 안내창으로 이동.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>RQ-0004</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -131,10 +123,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Puppies 개발 요구사항 정의서 (v0.0.2)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>RQ-0005</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -155,15 +143,112 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>비회원의 경우, eye-쇼핑이 가능.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>RQ-0006</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>비회원 하단 탭 &gt; 마이페이지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Puppies 개발 요구사항 정의서 (v0.0.3)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-0007</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>홈 화면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비회원의 경우, eye-쇼핑이 가능하다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>매장 검색창 으로 이동한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-0008</t>
+  </si>
+  <si>
+    <t>매장 노출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>매장 리스트의 일부를 노출한다.
+1) 회원 가입 &gt; 관심 지역 설정에 따라서 해당 관심 지역의 매장을 인기도 상위순으로 노출한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-0009</t>
+  </si>
+  <si>
+    <t>채팅 버튼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>매장 검색 버튼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅 창으로 이동시킨다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-0010</t>
+  </si>
+  <si>
+    <t>공지사항 버튼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 창으로 이동한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-0011</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비회원의 경우, 회원 가입 안내창으로 이동한다. (취소/회원가입)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 가입 과정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입시 한 화면에 한가지 정보 또는 한 테마의 질문만 노출되게 화면 분할한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-0012</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 동의 
+1) 만 14세 이상 (필수)
+2) 개인정보 수집 및 이용 동의 (필수)
+3) 이용 약관 동의 (필수)
+4) 위치기반 서비스 이용약관 동의 (필수)
+5) 개인정보 제3자 제공 동의 (필수)
+6) 마케팅 정보 수신 동의 (선택)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-0013</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가입 정보 
+1) 휴대폰 번호, 2) 이름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-0014</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -599,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0A3A02-0AA0-1440-8A68-269C67923069}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -618,7 +703,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="50" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -685,13 +770,13 @@
         <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="F4" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="50" customHeight="1">
@@ -699,19 +784,19 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="25" customHeight="1">
@@ -719,19 +804,19 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="F6" s="4" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="25" customHeight="1">
@@ -739,19 +824,19 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="25" customHeight="1">
@@ -759,19 +844,19 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="25" customHeight="1">
@@ -779,28 +864,182 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="25" customHeight="1">
+      <c r="A10" s="2">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="4" t="s">
+      <c r="E10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="25" customHeight="1">
+      <c r="A11" s="2">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="25" customHeight="1">
+      <c r="A12" s="2">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="50" customHeight="1">
+      <c r="A13" s="2">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="25" customHeight="1">
+      <c r="A14" s="2">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="3"/>
+      <c r="E14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="140" customHeight="1">
+      <c r="A15" s="2">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="50" customHeight="1">
+      <c r="A16" s="2">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="50" customHeight="1">
+      <c r="A17" s="2">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Puppies 요구사항 정의서.xlsx
+++ b/Puppies 요구사항 정의서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Wons/puppiesDocs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF943F3-2C1A-C24E-9E7C-74BB49A3F3F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB650BE-02E7-BE4C-832A-244849D402F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="660" windowWidth="50880" windowHeight="26820" xr2:uid="{44389DCF-ADBA-0C4B-8A9D-E4714FB1309E}"/>
+    <workbookView xWindow="25660" yWindow="660" windowWidth="25380" windowHeight="26820" xr2:uid="{44389DCF-ADBA-0C4B-8A9D-E4714FB1309E}"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항 정의서" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="55">
   <si>
     <t>No</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -148,10 +148,6 @@
   </si>
   <si>
     <t>비회원 하단 탭 &gt; 마이페이지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Puppies 개발 요구사항 정의서 (v0.0.3)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -249,6 +245,23 @@
   </si>
   <si>
     <t>RQ-0014</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가게 등록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 &amp; 비회원 상담 테이블 작성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 정보 8가지로 상담 테이블 작성한다.
+1) 연락처, 2) 견명, 3) 견종, 4) 생년월일, 5) 몸무게, 6) 성별, 7) 중성화 여부, 8) 유입 경로</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Puppies 개발 요구사항 정의서 (v0.0.31)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -687,7 +700,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -703,7 +716,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="50" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -770,7 +783,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>13</v>
@@ -790,7 +803,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
@@ -816,7 +829,7 @@
         <v>22</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="25" customHeight="1">
@@ -836,7 +849,7 @@
         <v>23</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="25" customHeight="1">
@@ -856,7 +869,7 @@
         <v>25</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="25" customHeight="1">
@@ -876,7 +889,7 @@
         <v>27</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="25" customHeight="1">
@@ -884,19 +897,19 @@
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="25" customHeight="1">
@@ -904,19 +917,19 @@
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="25" customHeight="1">
@@ -924,19 +937,19 @@
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="50" customHeight="1">
@@ -944,19 +957,19 @@
         <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="25" customHeight="1">
@@ -964,7 +977,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>11</v>
@@ -973,10 +986,10 @@
         <v>20</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="140" customHeight="1">
@@ -984,7 +997,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>11</v>
@@ -993,10 +1006,10 @@
         <v>20</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="50" customHeight="1">
@@ -1004,7 +1017,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>11</v>
@@ -1013,10 +1026,10 @@
         <v>20</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="50" customHeight="1">
@@ -1024,14 +1037,20 @@
         <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="4"/>
+      <c r="E17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2"/>
